--- a/Code/Results/Cases/Case_1_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.394845069032385</v>
+        <v>1.186842249490837</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02050343514863684</v>
+        <v>0.007892881942677121</v>
       </c>
       <c r="E2">
-        <v>1.45106083464097</v>
+        <v>0.7787286082367899</v>
       </c>
       <c r="F2">
-        <v>0.643427159959117</v>
+        <v>0.4994444187775429</v>
       </c>
       <c r="G2">
-        <v>0.0007572775286055108</v>
+        <v>0.002369686683785481</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.709659208659815</v>
+        <v>0.9151550329007279</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8089142933260689</v>
+        <v>0.3317526960658199</v>
       </c>
       <c r="M2">
-        <v>0.7061534562388445</v>
+        <v>0.3235158654437384</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.812824371784217</v>
+        <v>1.576574840463593</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088533811848038</v>
+        <v>1.087854672962521</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01806173710841463</v>
+        <v>0.007091353438440251</v>
       </c>
       <c r="E3">
-        <v>1.302890892003418</v>
+        <v>0.7311082958859743</v>
       </c>
       <c r="F3">
-        <v>0.5657487247323942</v>
+        <v>0.4862820119347688</v>
       </c>
       <c r="G3">
-        <v>0.0007623153193155309</v>
+        <v>0.002373058442449144</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6790972413832748</v>
+        <v>0.9151100917641557</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7040155695766828</v>
+        <v>0.298675550832229</v>
       </c>
       <c r="M3">
-        <v>0.6153219850264975</v>
+        <v>0.2944447077293546</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.600450148613447</v>
+        <v>1.546693487707159</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.900753444569716</v>
+        <v>1.026938595950412</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01656283603803033</v>
+        <v>0.006597748167170181</v>
       </c>
       <c r="E4">
-        <v>1.211924162221933</v>
+        <v>0.7019212379060491</v>
       </c>
       <c r="F4">
-        <v>0.5195778178191546</v>
+        <v>0.4786915913306444</v>
       </c>
       <c r="G4">
-        <v>0.0007655059816404681</v>
+        <v>0.002375239564484484</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6620423253696615</v>
+        <v>0.9158644192635634</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6397213492779343</v>
+        <v>0.2783327030838478</v>
       </c>
       <c r="M4">
-        <v>0.5596340169829332</v>
+        <v>0.2765600652531717</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.475091415332002</v>
+        <v>1.529995555072077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.824277112115936</v>
+        <v>1.00208187030745</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01595192417280344</v>
+        <v>0.006396250649228108</v>
       </c>
       <c r="E5">
-        <v>1.174855302417626</v>
+        <v>0.6900420218302941</v>
       </c>
       <c r="F5">
-        <v>0.5011110400222023</v>
+        <v>0.475721362181261</v>
       </c>
       <c r="G5">
-        <v>0.0007668313154454315</v>
+        <v>0.002376156349263332</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.655500953293533</v>
+        <v>0.9163687134598391</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6135396488741094</v>
+        <v>0.2700349587544792</v>
       </c>
       <c r="M5">
-        <v>0.5369533590765911</v>
+        <v>0.2692636462573219</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.425161154372091</v>
+        <v>1.523603524467205</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.81158023520166</v>
+        <v>0.9979524886025501</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01585047208805435</v>
+        <v>0.006362771592144156</v>
       </c>
       <c r="E6">
-        <v>1.168700055226935</v>
+        <v>0.6880704270949565</v>
       </c>
       <c r="F6">
-        <v>0.4980646947105782</v>
+        <v>0.475235564179556</v>
       </c>
       <c r="G6">
-        <v>0.0007670529200544837</v>
+        <v>0.002376310272053409</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6544388434180419</v>
+        <v>0.9164643518848692</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6091930508714682</v>
+        <v>0.2686566647285815</v>
       </c>
       <c r="M6">
-        <v>0.5331877881367006</v>
+        <v>0.2680515954187044</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.41693682315406</v>
+        <v>1.522566982132702</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.899721909462812</v>
+        <v>1.026603500655654</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01655459767914635</v>
+        <v>0.006595032091020414</v>
       </c>
       <c r="E7">
-        <v>1.211424237220342</v>
+        <v>0.7017609687081432</v>
       </c>
       <c r="F7">
-        <v>0.5193274031173942</v>
+        <v>0.478651036878091</v>
       </c>
       <c r="G7">
-        <v>0.0007655237530121363</v>
+        <v>0.002375251815172628</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6619524788921112</v>
+        <v>0.9158704227331143</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6393681905565813</v>
+        <v>0.278220827972504</v>
       </c>
       <c r="M7">
-        <v>0.559328096930571</v>
+        <v>0.2764616960913386</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.474413508454035</v>
+        <v>1.529907682624781</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.289149476055627</v>
+        <v>1.152740750405144</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0196613599174853</v>
+        <v>0.007616829544364379</v>
       </c>
       <c r="E8">
-        <v>1.399968456427203</v>
+        <v>0.7622993121651405</v>
       </c>
       <c r="F8">
-        <v>0.6163056200864787</v>
+        <v>0.494803660006383</v>
       </c>
       <c r="G8">
-        <v>0.0007589947146841978</v>
+        <v>0.002370826311746992</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6987531674175216</v>
+        <v>0.9149774079401851</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7727152967088387</v>
+        <v>0.3203549152076164</v>
       </c>
       <c r="M8">
-        <v>0.6748123977402187</v>
+        <v>0.313499635440138</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.738481606459203</v>
+        <v>1.565928077472961</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.056605497400199</v>
+        <v>1.398948943771927</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02576556521408691</v>
+        <v>0.009608243528099081</v>
       </c>
       <c r="E9">
-        <v>1.769910697029246</v>
+        <v>0.8813605395253745</v>
       </c>
       <c r="F9">
-        <v>0.8202661655292331</v>
+        <v>0.5304080247617691</v>
       </c>
       <c r="G9">
-        <v>0.0007469348149996064</v>
+        <v>0.002363023507560454</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7855282552540075</v>
+        <v>0.9194208113321238</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.035613169197774</v>
+        <v>0.4026967341413297</v>
       </c>
       <c r="M9">
-        <v>0.9023472108540389</v>
+        <v>0.3858373529630086</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.301776533814689</v>
+        <v>1.649756960998076</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.624992205825549</v>
+        <v>1.579081531568249</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03027296667327306</v>
+        <v>0.0110630121429125</v>
       </c>
       <c r="E10">
-        <v>2.042082150417301</v>
+        <v>0.9689650480906806</v>
       </c>
       <c r="F10">
-        <v>0.9810696622307802</v>
+        <v>0.5590073065671533</v>
       </c>
       <c r="G10">
-        <v>0.0007384832195961138</v>
+        <v>0.002357819051400917</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8597477512680456</v>
+        <v>0.926452806400313</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.230394821322307</v>
+        <v>0.4630023270622985</v>
       </c>
       <c r="M10">
-        <v>1.070808059518122</v>
+        <v>0.4387874069518887</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.751569346947605</v>
+        <v>1.719544211235814</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.885097626163656</v>
+        <v>1.660853610973902</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03233247882572954</v>
+        <v>0.01172285861587596</v>
       </c>
       <c r="E11">
-        <v>2.166051478779835</v>
+        <v>1.00883061113467</v>
       </c>
       <c r="F11">
-        <v>1.057223695926723</v>
+        <v>0.5725577905984096</v>
       </c>
       <c r="G11">
-        <v>0.0007347163825331259</v>
+        <v>0.002355564940847665</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8961628785550602</v>
+        <v>0.930468522341485</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.319551142703119</v>
+        <v>0.4903920343973596</v>
       </c>
       <c r="M11">
-        <v>1.147882583992441</v>
+        <v>0.4628298381722402</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.966005486078387</v>
+        <v>1.753106220837111</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.983863544722681</v>
+        <v>1.691792708571882</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03311405089338137</v>
+        <v>0.01197243104655143</v>
       </c>
       <c r="E12">
-        <v>2.213024325427781</v>
+        <v>1.023927126535355</v>
       </c>
       <c r="F12">
-        <v>1.086550083837707</v>
+        <v>0.5777674615905397</v>
       </c>
       <c r="G12">
-        <v>0.0007333002021265985</v>
+        <v>0.002354727588586868</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9103680700731758</v>
+        <v>0.932106482579286</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.353408463849149</v>
+        <v>0.5007571229129155</v>
       </c>
       <c r="M12">
-        <v>1.177146128892275</v>
+        <v>0.471927256485742</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.048803727572675</v>
+        <v>1.766078882290998</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.962579740550723</v>
+        <v>1.685130611471891</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03294564415384826</v>
+        <v>0.01191869466948248</v>
       </c>
       <c r="E13">
-        <v>2.202906519911494</v>
+        <v>1.020675835692614</v>
       </c>
       <c r="F13">
-        <v>1.080211438721676</v>
+        <v>0.5766419683661326</v>
       </c>
       <c r="G13">
-        <v>0.0007336047625763609</v>
+        <v>0.002354907206919616</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9072896709219975</v>
+        <v>0.9317485042073059</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.346112141135734</v>
+        <v>0.4985251263740622</v>
       </c>
       <c r="M13">
-        <v>1.170840040785251</v>
+        <v>0.469968280464073</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.030897564255895</v>
+        <v>1.763273232072464</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.893217465687144</v>
+        <v>1.663399523619034</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03239674324220232</v>
+        <v>0.01174339715146289</v>
       </c>
       <c r="E14">
-        <v>2.169915358660077</v>
+        <v>1.010072614352993</v>
       </c>
       <c r="F14">
-        <v>1.059626262639043</v>
+        <v>0.5729848183484876</v>
       </c>
       <c r="G14">
-        <v>0.0007345996730242767</v>
+        <v>0.002355495726441729</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8973230137532937</v>
+        <v>0.9306009284135115</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.322334584075293</v>
+        <v>0.4912449157334038</v>
       </c>
       <c r="M14">
-        <v>1.150288485499502</v>
+        <v>0.4635784298601209</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.972784251912742</v>
+        <v>1.754168195711742</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.850767671127016</v>
+        <v>1.650085143821457</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03206075629401539</v>
+        <v>0.01163598311343605</v>
       </c>
       <c r="E15">
-        <v>2.14971119863084</v>
+        <v>1.003577823054655</v>
       </c>
       <c r="F15">
-        <v>1.047082632830481</v>
+        <v>0.5707549377837893</v>
       </c>
       <c r="G15">
-        <v>0.0007352103881007216</v>
+        <v>0.002355858323119324</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8912733303716038</v>
+        <v>0.929913275899068</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.30778313889752</v>
+        <v>0.4867846754954712</v>
       </c>
       <c r="M15">
-        <v>1.137710532005855</v>
+        <v>0.4596635453025755</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.937401736490415</v>
+        <v>1.748625479007046</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.608028746721061</v>
+        <v>1.573733952320026</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03013858619211618</v>
+        <v>0.01101984906919284</v>
       </c>
       <c r="E16">
-        <v>2.033984096711549</v>
+        <v>0.966359872657037</v>
       </c>
       <c r="F16">
-        <v>0.9761579809701999</v>
+        <v>0.5581326846368029</v>
       </c>
       <c r="G16">
-        <v>0.0007387308778266401</v>
+        <v>0.002357968638380523</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.857424166743705</v>
+        <v>0.9262067922850861</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.224580696949971</v>
+        <v>0.4612114224135837</v>
       </c>
       <c r="M16">
-        <v>1.065781072901672</v>
+        <v>0.437215234180627</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.737768406655363</v>
+        <v>1.717387591425421</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.459544247235669</v>
+        <v>1.526849986140178</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02896197212429996</v>
+        <v>0.01064136167510554</v>
       </c>
       <c r="E17">
-        <v>1.963033328740323</v>
+        <v>0.9435301953131301</v>
       </c>
       <c r="F17">
-        <v>0.9334560130346432</v>
+        <v>0.5505282601459811</v>
       </c>
       <c r="G17">
-        <v>0.0007409098667785861</v>
+        <v>0.002359292241925086</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8373615746517871</v>
+        <v>0.9241420727551102</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.173690816549936</v>
+        <v>0.4455115123199391</v>
       </c>
       <c r="M17">
-        <v>1.021776963517169</v>
+        <v>0.4234320974733379</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.61794109636125</v>
+        <v>1.698690845098611</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.374282073899565</v>
+        <v>1.499867554621005</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02828604352694697</v>
+        <v>0.01042348470822674</v>
       </c>
       <c r="E18">
-        <v>1.922238718859305</v>
+        <v>0.9304005710824157</v>
       </c>
       <c r="F18">
-        <v>0.9091740206528414</v>
+        <v>0.5462052333712535</v>
       </c>
       <c r="G18">
-        <v>0.0007421705516084808</v>
+        <v>0.002360064224210575</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8260695447900375</v>
+        <v>0.9230313929966201</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.144470900599515</v>
+        <v>0.4364772656597324</v>
       </c>
       <c r="M18">
-        <v>0.9965075674679511</v>
+        <v>0.4155002121737823</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.549932280045226</v>
+        <v>1.688107705760473</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.345436800424864</v>
+        <v>1.490729065829726</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02805731742513018</v>
+        <v>0.01034968479803666</v>
       </c>
       <c r="E19">
-        <v>1.908428676898012</v>
+        <v>0.9259553987711797</v>
       </c>
       <c r="F19">
-        <v>0.9009988400025293</v>
+        <v>0.5447502416715935</v>
       </c>
       <c r="G19">
-        <v>0.000742598694438599</v>
+        <v>0.002360327441042487</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8222877593588507</v>
+        <v>0.9226685474537177</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.134585742505095</v>
+        <v>0.4334177415410068</v>
       </c>
       <c r="M19">
-        <v>0.9879583598321275</v>
+        <v>0.4128139074114543</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.527057097109747</v>
+        <v>1.684553687302497</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.475335627810523</v>
+        <v>1.531842533497297</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02908713637615534</v>
+        <v>0.01068167117739449</v>
       </c>
       <c r="E20">
-        <v>1.970584630504717</v>
+        <v>0.9459603206521763</v>
       </c>
       <c r="F20">
-        <v>0.9379724360323962</v>
+        <v>0.551332497812993</v>
       </c>
       <c r="G20">
-        <v>0.0007406771516857845</v>
+        <v>0.002359150237110501</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8394714237098029</v>
+        <v>0.9243539088346537</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.179102777834203</v>
+        <v>0.4471832200065364</v>
       </c>
       <c r="M20">
-        <v>1.026456978305376</v>
+        <v>0.4248997730470307</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.630601183170199</v>
+        <v>1.700663457872736</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.913583128399807</v>
+        <v>1.669783194987644</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03255791992418722</v>
+        <v>0.01179489449423698</v>
       </c>
       <c r="E21">
-        <v>2.17960484250014</v>
+        <v>1.013187043005516</v>
       </c>
       <c r="F21">
-        <v>1.065658893362837</v>
+        <v>0.5740568789649245</v>
       </c>
       <c r="G21">
-        <v>0.0007343071738628582</v>
+        <v>0.002355322424103035</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9002388977183386</v>
+        <v>0.9309348170916678</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.329315888620897</v>
+        <v>0.4933834787748594</v>
       </c>
       <c r="M21">
-        <v>1.156322767846575</v>
+        <v>0.4654554757389775</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.989808682051972</v>
+        <v>1.756835396362732</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.201600064126069</v>
+        <v>1.759781869801259</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03483627872533646</v>
+        <v>0.01252070995609245</v>
       </c>
       <c r="E22">
-        <v>2.316380243925039</v>
+        <v>1.057124518158517</v>
       </c>
       <c r="F22">
-        <v>1.151986848396703</v>
+        <v>0.5893658417036818</v>
       </c>
       <c r="G22">
-        <v>0.0007302032021372281</v>
+        <v>0.002352915294691991</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9423941552221038</v>
+        <v>0.9359194455762747</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.428055920856877</v>
+        <v>0.5235381477254748</v>
       </c>
       <c r="M22">
-        <v>1.24165419348347</v>
+        <v>0.4919203670962133</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.233971456459471</v>
+        <v>1.795083743336988</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.047717030968499</v>
+        <v>1.71176245358771</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03361922325206024</v>
+        <v>0.01213349398175012</v>
       </c>
       <c r="E23">
-        <v>2.243363063871456</v>
+        <v>1.033674732356374</v>
       </c>
       <c r="F23">
-        <v>1.105628637433497</v>
+        <v>0.5811530994798062</v>
       </c>
       <c r="G23">
-        <v>0.0007323884916799349</v>
+        <v>0.002354191398058189</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9196597864817448</v>
+        <v>0.9331965537751614</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.37529866006048</v>
+        <v>0.5074478541866085</v>
       </c>
       <c r="M23">
-        <v>1.1960645734286</v>
+        <v>0.4777994300057742</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.102732006777472</v>
+        <v>1.774528477667786</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.468196025693601</v>
+        <v>1.529585490595821</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02903054801812743</v>
+        <v>0.01066344812034004</v>
       </c>
       <c r="E24">
-        <v>1.967170700071108</v>
+        <v>0.944861674997739</v>
       </c>
       <c r="F24">
-        <v>0.9359297308430712</v>
+        <v>0.5509687498237668</v>
       </c>
       <c r="G24">
-        <v>0.0007407823373275243</v>
+        <v>0.002359214403132001</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8385168090349637</v>
+        <v>0.9242578998885236</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.176655915037657</v>
+        <v>0.4464274663374965</v>
       </c>
       <c r="M24">
-        <v>1.024341053836828</v>
+        <v>0.4242362611055199</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.624874825903561</v>
+        <v>1.699771123141829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.848363838677528</v>
+        <v>1.332471915431654</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0241114750807867</v>
+        <v>0.009070917597099992</v>
       </c>
       <c r="E25">
-        <v>1.669786237769685</v>
+        <v>0.849122703010778</v>
       </c>
       <c r="F25">
-        <v>0.7633625225952443</v>
+        <v>0.5203507565200454</v>
       </c>
       <c r="G25">
-        <v>0.0007501221312989233</v>
+        <v>0.002365041207140476</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7603354870815551</v>
+        <v>0.9175565652032418</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9642660146449202</v>
+        <v>0.3804533207567431</v>
       </c>
       <c r="M25">
-        <v>0.8406157216449728</v>
+        <v>0.3663013504448429</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.143714115783467</v>
+        <v>1.625650549128267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_139/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.186842249490837</v>
+        <v>2.394845069032556</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.007892881942677121</v>
+        <v>0.02050343514852315</v>
       </c>
       <c r="E2">
-        <v>0.7787286082367899</v>
+        <v>1.451060834640984</v>
       </c>
       <c r="F2">
-        <v>0.4994444187775429</v>
+        <v>0.643427159959117</v>
       </c>
       <c r="G2">
-        <v>0.002369686683785481</v>
+        <v>0.0007572775286886107</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9151550329007279</v>
+        <v>0.7096592086598363</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3317526960658199</v>
+        <v>0.8089142933260689</v>
       </c>
       <c r="M2">
-        <v>0.3235158654437384</v>
+        <v>0.7061534562388729</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.576574840463593</v>
+        <v>1.812824371784188</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.087854672962521</v>
+        <v>2.088533811848038</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007091353438440251</v>
+        <v>0.01806173710841463</v>
       </c>
       <c r="E3">
-        <v>0.7311082958859743</v>
+        <v>1.302890892003447</v>
       </c>
       <c r="F3">
-        <v>0.4862820119347688</v>
+        <v>0.5657487247324013</v>
       </c>
       <c r="G3">
-        <v>0.002373058442449144</v>
+        <v>0.0007623153193441175</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9151100917641557</v>
+        <v>0.6790972413832748</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.298675550832229</v>
+        <v>0.7040155695766828</v>
       </c>
       <c r="M3">
-        <v>0.2944447077293546</v>
+        <v>0.6153219850264904</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.546693487707159</v>
+        <v>1.600450148613447</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.026938595950412</v>
+        <v>1.900753444569716</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006597748167170181</v>
+        <v>0.01656283603791309</v>
       </c>
       <c r="E4">
-        <v>0.7019212379060491</v>
+        <v>1.211924162221891</v>
       </c>
       <c r="F4">
-        <v>0.4786915913306444</v>
+        <v>0.5195778178191546</v>
       </c>
       <c r="G4">
-        <v>0.002375239564484484</v>
+        <v>0.0007655059815875886</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9158644192635634</v>
+        <v>0.662042325369633</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2783327030838478</v>
+        <v>0.6397213492780338</v>
       </c>
       <c r="M4">
-        <v>0.2765600652531717</v>
+        <v>0.5596340169829332</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.529995555072077</v>
+        <v>1.475091415331946</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.00208187030745</v>
+        <v>1.824277112115823</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006396250649228108</v>
+        <v>0.01595192417296332</v>
       </c>
       <c r="E5">
-        <v>0.6900420218302941</v>
+        <v>1.174855302417598</v>
       </c>
       <c r="F5">
-        <v>0.475721362181261</v>
+        <v>0.5011110400222165</v>
       </c>
       <c r="G5">
-        <v>0.002376156349263332</v>
+        <v>0.000766831315335581</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9163687134598391</v>
+        <v>0.655500953293533</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2700349587544792</v>
+        <v>0.6135396488740952</v>
       </c>
       <c r="M5">
-        <v>0.2692636462573219</v>
+        <v>0.536953359076584</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.523603524467205</v>
+        <v>1.425161154372063</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9979524886025501</v>
+        <v>1.811580235201887</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006362771592144156</v>
+        <v>0.0158504720881254</v>
       </c>
       <c r="E6">
-        <v>0.6880704270949565</v>
+        <v>1.168700055226964</v>
       </c>
       <c r="F6">
-        <v>0.475235564179556</v>
+        <v>0.4980646947105711</v>
       </c>
       <c r="G6">
-        <v>0.002376310272053409</v>
+        <v>0.0007670529200545297</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9164643518848692</v>
+        <v>0.6544388434180419</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2686566647285815</v>
+        <v>0.6091930508713261</v>
       </c>
       <c r="M6">
-        <v>0.2680515954187044</v>
+        <v>0.5331877881367006</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.522566982132702</v>
+        <v>1.41693682315406</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.026603500655654</v>
+        <v>1.899721909462755</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006595032091020414</v>
+        <v>0.01655459767890832</v>
       </c>
       <c r="E7">
-        <v>0.7017609687081432</v>
+        <v>1.211424237220328</v>
       </c>
       <c r="F7">
-        <v>0.478651036878091</v>
+        <v>0.5193274031173942</v>
       </c>
       <c r="G7">
-        <v>0.002375251815172628</v>
+        <v>0.0007655237529835133</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9158704227331143</v>
+        <v>0.6619524788921112</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.278220827972504</v>
+        <v>0.6393681905564677</v>
       </c>
       <c r="M7">
-        <v>0.2764616960913386</v>
+        <v>0.5593280969305638</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.529907682624781</v>
+        <v>1.474413508454006</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.152740750405144</v>
+        <v>2.289149476055741</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007616829544364379</v>
+        <v>0.01966135991726148</v>
       </c>
       <c r="E8">
-        <v>0.7622993121651405</v>
+        <v>1.399968456427203</v>
       </c>
       <c r="F8">
-        <v>0.494803660006383</v>
+        <v>0.6163056200864645</v>
       </c>
       <c r="G8">
-        <v>0.002370826311746992</v>
+        <v>0.0007589947146873209</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9149774079401851</v>
+        <v>0.6987531674175287</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3203549152076164</v>
+        <v>0.7727152967089523</v>
       </c>
       <c r="M8">
-        <v>0.313499635440138</v>
+        <v>0.6748123977401903</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.565928077472961</v>
+        <v>1.738481606459231</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.398948943771927</v>
+        <v>3.056605497400085</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009608243528099081</v>
+        <v>0.02576556521391637</v>
       </c>
       <c r="E9">
-        <v>0.8813605395253745</v>
+        <v>1.769910697029232</v>
       </c>
       <c r="F9">
-        <v>0.5304080247617691</v>
+        <v>0.8202661655292474</v>
       </c>
       <c r="G9">
-        <v>0.002363023507560454</v>
+        <v>0.0007469348149686188</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9194208113321238</v>
+        <v>0.7855282552540004</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4026967341413297</v>
+        <v>1.035613169197745</v>
       </c>
       <c r="M9">
-        <v>0.3858373529630086</v>
+        <v>0.9023472108540176</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.649756960998076</v>
+        <v>2.301776533814632</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.579081531568249</v>
+        <v>3.624992205825322</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0110630121429125</v>
+        <v>0.03027296667338675</v>
       </c>
       <c r="E10">
-        <v>0.9689650480906806</v>
+        <v>2.042082150417301</v>
       </c>
       <c r="F10">
-        <v>0.5590073065671533</v>
+        <v>0.9810696622307802</v>
       </c>
       <c r="G10">
-        <v>0.002357819051400917</v>
+        <v>0.0007384832195961369</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.926452806400313</v>
+        <v>0.859747751268074</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4630023270622985</v>
+        <v>1.23039482132225</v>
       </c>
       <c r="M10">
-        <v>0.4387874069518887</v>
+        <v>1.070808059518114</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.719544211235814</v>
+        <v>2.751569346947633</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.660853610973902</v>
+        <v>3.88509762616377</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01172285861587596</v>
+        <v>0.0323324788255448</v>
       </c>
       <c r="E11">
-        <v>1.00883061113467</v>
+        <v>2.166051478779835</v>
       </c>
       <c r="F11">
-        <v>0.5725577905984096</v>
+        <v>1.057223695926737</v>
       </c>
       <c r="G11">
-        <v>0.002355564940847665</v>
+        <v>0.0007347163824767556</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.930468522341485</v>
+        <v>0.8961628785550886</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4903920343973596</v>
+        <v>1.319551142703034</v>
       </c>
       <c r="M11">
-        <v>0.4628298381722402</v>
+        <v>1.147882583992441</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.753106220837111</v>
+        <v>2.966005486078387</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.691792708571882</v>
+        <v>3.983863544723192</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01197243104655143</v>
+        <v>0.03311405089330322</v>
       </c>
       <c r="E12">
-        <v>1.023927126535355</v>
+        <v>2.213024325427824</v>
       </c>
       <c r="F12">
-        <v>0.5777674615905397</v>
+        <v>1.086550083837707</v>
       </c>
       <c r="G12">
-        <v>0.002354727588586868</v>
+        <v>0.0007333002021261548</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.932106482579286</v>
+        <v>0.9103680700731758</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5007571229129155</v>
+        <v>1.353408463849007</v>
       </c>
       <c r="M12">
-        <v>0.471927256485742</v>
+        <v>1.177146128892289</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.766078882290998</v>
+        <v>3.048803727572675</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.685130611471891</v>
+        <v>3.962579740550837</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01191869466948248</v>
+        <v>0.03294564415391221</v>
       </c>
       <c r="E13">
-        <v>1.020675835692614</v>
+        <v>2.202906519911522</v>
       </c>
       <c r="F13">
-        <v>0.5766419683661326</v>
+        <v>1.08021143872169</v>
       </c>
       <c r="G13">
-        <v>0.002354907206919616</v>
+        <v>0.0007336047626043254</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9317485042073059</v>
+        <v>0.9072896709219833</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4985251263740622</v>
+        <v>1.346112141135762</v>
       </c>
       <c r="M13">
-        <v>0.469968280464073</v>
+        <v>1.170840040785251</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.763273232072464</v>
+        <v>3.030897564255923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663399523619034</v>
+        <v>3.893217465686917</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01174339715146289</v>
+        <v>0.03239674324215258</v>
       </c>
       <c r="E14">
-        <v>1.010072614352993</v>
+        <v>2.169915358660049</v>
       </c>
       <c r="F14">
-        <v>0.5729848183484876</v>
+        <v>1.059626262639028</v>
       </c>
       <c r="G14">
-        <v>0.002355495726441729</v>
+        <v>0.0007345996729629808</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9306009284135115</v>
+        <v>0.8973230137532795</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4912449157334038</v>
+        <v>1.322334584075065</v>
       </c>
       <c r="M14">
-        <v>0.4635784298601209</v>
+        <v>1.15028848549953</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.754168195711742</v>
+        <v>2.972784251912714</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.650085143821457</v>
+        <v>3.85076767112713</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01163598311343605</v>
+        <v>0.03206075629407934</v>
       </c>
       <c r="E15">
-        <v>1.003577823054655</v>
+        <v>2.14971119863084</v>
       </c>
       <c r="F15">
-        <v>0.5707549377837893</v>
+        <v>1.047082632830467</v>
       </c>
       <c r="G15">
-        <v>0.002355858323119324</v>
+        <v>0.0007352103880999827</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.929913275899068</v>
+        <v>0.8912733303715896</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4867846754954712</v>
+        <v>1.307783138897463</v>
       </c>
       <c r="M15">
-        <v>0.4596635453025755</v>
+        <v>1.13771053200584</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.748625479007046</v>
+        <v>2.937401736490386</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.573733952320026</v>
+        <v>3.608028746721402</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01101984906919284</v>
+        <v>0.03013858619215881</v>
       </c>
       <c r="E16">
-        <v>0.966359872657037</v>
+        <v>2.033984096711563</v>
       </c>
       <c r="F16">
-        <v>0.5581326846368029</v>
+        <v>0.9761579809701857</v>
       </c>
       <c r="G16">
-        <v>0.002357968638380523</v>
+        <v>0.0007387308778219189</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9262067922850861</v>
+        <v>0.8574241667436553</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4612114224135837</v>
+        <v>1.224580696950056</v>
       </c>
       <c r="M16">
-        <v>0.437215234180627</v>
+        <v>1.065781072901643</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.717387591425421</v>
+        <v>2.737768406655363</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.526849986140178</v>
+        <v>3.459544247235442</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01064136167510554</v>
+        <v>0.02896197212436391</v>
       </c>
       <c r="E17">
-        <v>0.9435301953131301</v>
+        <v>1.963033328740323</v>
       </c>
       <c r="F17">
-        <v>0.5505282601459811</v>
+        <v>0.933456013034629</v>
       </c>
       <c r="G17">
-        <v>0.002359292241925086</v>
+        <v>0.0007409098667791101</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9241420727551102</v>
+        <v>0.8373615746518297</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4455115123199391</v>
+        <v>1.173690816549936</v>
       </c>
       <c r="M17">
-        <v>0.4234320974733379</v>
+        <v>1.021776963517141</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.698690845098611</v>
+        <v>2.61794109636125</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.499867554621005</v>
+        <v>3.374282073899678</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01042348470822674</v>
+        <v>0.02828604352706776</v>
       </c>
       <c r="E18">
-        <v>0.9304005710824157</v>
+        <v>1.922238718859262</v>
       </c>
       <c r="F18">
-        <v>0.5462052333712535</v>
+        <v>0.9091740206528414</v>
       </c>
       <c r="G18">
-        <v>0.002360064224210575</v>
+        <v>0.0007421705515811581</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9230313929966201</v>
+        <v>0.8260695447900375</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4364772656597324</v>
+        <v>1.1444709005996</v>
       </c>
       <c r="M18">
-        <v>0.4155002121737823</v>
+        <v>0.9965075674679156</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.688107705760473</v>
+        <v>2.549932280045169</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.490729065829726</v>
+        <v>3.345436800424864</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01034968479803666</v>
+        <v>0.02805731742501649</v>
       </c>
       <c r="E19">
-        <v>0.9259553987711797</v>
+        <v>1.908428676897984</v>
       </c>
       <c r="F19">
-        <v>0.5447502416715935</v>
+        <v>0.9009988400025293</v>
       </c>
       <c r="G19">
-        <v>0.002360327441042487</v>
+        <v>0.000742598694465688</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9226685474537177</v>
+        <v>0.8222877593588365</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4334177415410068</v>
+        <v>1.134585742505266</v>
       </c>
       <c r="M19">
-        <v>0.4128139074114543</v>
+        <v>0.9879583598321844</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.684553687302497</v>
+        <v>2.527057097109747</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.531842533497297</v>
+        <v>3.475335627810637</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01068167117739449</v>
+        <v>0.02908713637615534</v>
       </c>
       <c r="E20">
-        <v>0.9459603206521763</v>
+        <v>1.970584630504717</v>
       </c>
       <c r="F20">
-        <v>0.551332497812993</v>
+        <v>0.937972436032382</v>
       </c>
       <c r="G20">
-        <v>0.002359150237110501</v>
+        <v>0.0007406771516896633</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9243539088346537</v>
+        <v>0.8394714237097745</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4471832200065364</v>
+        <v>1.179102777834231</v>
       </c>
       <c r="M20">
-        <v>0.4248997730470307</v>
+        <v>1.026456978305418</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.700663457872736</v>
+        <v>2.630601183170143</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.669783194987644</v>
+        <v>3.913583128399864</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01179489449423698</v>
+        <v>0.0325579199242938</v>
       </c>
       <c r="E21">
-        <v>1.013187043005516</v>
+        <v>2.17960484250014</v>
       </c>
       <c r="F21">
-        <v>0.5740568789649245</v>
+        <v>1.065658893362837</v>
       </c>
       <c r="G21">
-        <v>0.002355322424103035</v>
+        <v>0.0007343071738350748</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9309348170916678</v>
+        <v>0.9002388977183671</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4933834787748594</v>
+        <v>1.329315888620982</v>
       </c>
       <c r="M21">
-        <v>0.4654554757389775</v>
+        <v>1.156322767846547</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.756835396362732</v>
+        <v>2.989808682051944</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.759781869801259</v>
+        <v>4.201600064126524</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01252070995609245</v>
+        <v>0.03483627872533646</v>
       </c>
       <c r="E22">
-        <v>1.057124518158517</v>
+        <v>2.316380243925039</v>
       </c>
       <c r="F22">
-        <v>0.5893658417036818</v>
+        <v>1.151986848396717</v>
       </c>
       <c r="G22">
-        <v>0.002352915294691991</v>
+        <v>0.0007302032021642911</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9359194455762747</v>
+        <v>0.9423941552220754</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5235381477254748</v>
+        <v>1.428055920856849</v>
       </c>
       <c r="M22">
-        <v>0.4919203670962133</v>
+        <v>1.241654193483484</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.795083743336988</v>
+        <v>3.233971456459528</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.71176245358771</v>
+        <v>4.047717030968442</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01213349398175012</v>
+        <v>0.03361922325217392</v>
       </c>
       <c r="E23">
-        <v>1.033674732356374</v>
+        <v>2.243363063871456</v>
       </c>
       <c r="F23">
-        <v>0.5811530994798062</v>
+        <v>1.105628637433512</v>
       </c>
       <c r="G23">
-        <v>0.002354191398058189</v>
+        <v>0.0007323884916521793</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9331965537751614</v>
+        <v>0.9196597864817164</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5074478541866085</v>
+        <v>1.375298660060537</v>
       </c>
       <c r="M23">
-        <v>0.4777994300057742</v>
+        <v>1.1960645734286</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.774528477667786</v>
+        <v>3.102732006777444</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.529585490595821</v>
+        <v>3.468196025693771</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01066344812034004</v>
+        <v>0.0290305480180777</v>
       </c>
       <c r="E24">
-        <v>0.944861674997739</v>
+        <v>1.967170700071136</v>
       </c>
       <c r="F24">
-        <v>0.5509687498237668</v>
+        <v>0.9359297308430854</v>
       </c>
       <c r="G24">
-        <v>0.002359214403132001</v>
+        <v>0.0007407823372991692</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9242578998885236</v>
+        <v>0.8385168090349424</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4464274663374965</v>
+        <v>1.1766559150376</v>
       </c>
       <c r="M24">
-        <v>0.4242362611055199</v>
+        <v>1.024341053836849</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.699771123141829</v>
+        <v>2.624874825903703</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.332471915431654</v>
+        <v>2.848363838677187</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009070917597099992</v>
+        <v>0.02411147508079381</v>
       </c>
       <c r="E25">
-        <v>0.849122703010778</v>
+        <v>1.669786237769699</v>
       </c>
       <c r="F25">
-        <v>0.5203507565200454</v>
+        <v>0.7633625225952443</v>
       </c>
       <c r="G25">
-        <v>0.002365041207140476</v>
+        <v>0.0007501221313277232</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9175565652032418</v>
+        <v>0.7603354870815693</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3804533207567431</v>
+        <v>0.9642660146449202</v>
       </c>
       <c r="M25">
-        <v>0.3663013504448429</v>
+        <v>0.8406157216449444</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.625650549128267</v>
+        <v>2.143714115783411</v>
       </c>
     </row>
   </sheetData>
